--- a/public/exel/Form1.xlsx
+++ b/public/exel/Form1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sbfp_ao_system\public\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66733897-E05D-4C2E-BCDA-3A8F477D3847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DC1E7D-F091-4B06-BE47-39CA83DD2C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1408,19 +1408,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1437,17 +1453,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,14 +1471,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1843,8 +1843,8 @@
   </sheetPr>
   <dimension ref="A1:AC2047"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1864,231 +1864,233 @@
     <col min="13" max="13" width="17.453125" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.81640625" style="1" customWidth="1"/>
     <col min="15" max="20" width="10.81640625" style="1" customWidth="1"/>
-    <col min="21" max="28" width="8" style="1" customWidth="1"/>
+    <col min="21" max="23" width="8" style="1" customWidth="1"/>
+    <col min="24" max="26" width="8" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="28" width="8" style="1" customWidth="1"/>
     <col min="29" max="29" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="92"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
     </row>
     <row r="3" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
     </row>
     <row r="5" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="H6" s="93" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="H6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="H7" s="93" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="H7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:20" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="94" t="s">
+      <c r="G11" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="94" t="s">
+      <c r="H11" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94" t="s">
+      <c r="I11" s="83"/>
+      <c r="J11" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="94" t="s">
+      <c r="K11" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="97" t="s">
+      <c r="L11" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="94" t="s">
+      <c r="M11" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="95"/>
-      <c r="O11" s="81" t="s">
+      <c r="N11" s="98"/>
+      <c r="O11" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="81" t="s">
+      <c r="Q11" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="81" t="s">
+      <c r="R11" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="81" t="s">
+      <c r="S11" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="T11" s="84" t="s">
+      <c r="T11" s="88" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="96"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="72" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="98"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="64" t="s">
         <v>29</v>
       </c>
       <c r="N12" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="85"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="89"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66"/>
@@ -46820,14 +46822,10 @@
     <row r="2047" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="O11:O12"/>
     <mergeCell ref="T11:T12"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="A1:B1"/>
@@ -46844,10 +46842,14 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.11811023622047" right="3.9370078740157001E-2" top="0.11811023622047" bottom="0.11811023622047" header="0.11811023622047" footer="0.11811023622047"/>
   <pageSetup paperSize="14" scale="70" orientation="landscape" r:id="rId1"/>
@@ -46882,7 +46884,7 @@
     </row>
     <row r="2" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="93" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="105"/>
@@ -46905,7 +46907,7 @@
     </row>
     <row r="4" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="96" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="105"/>
@@ -46927,7 +46929,7 @@
       <c r="R5" s="105"/>
     </row>
     <row r="6" spans="1:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="105"/>
       <c r="C6" s="105"/>
       <c r="D6" s="105"/>
@@ -47659,7 +47661,7 @@
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
-      <c r="H43" s="89" t="s">
+      <c r="H43" s="95" t="s">
         <v>68</v>
       </c>
       <c r="I43" s="105"/>
@@ -47674,7 +47676,7 @@
         <v>69</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="H44" s="89" t="s">
+      <c r="H44" s="95" t="s">
         <v>31</v>
       </c>
       <c r="I44" s="105"/>
